--- a/individual_investments.xlsx
+++ b/individual_investments.xlsx
@@ -37,25 +37,34 @@
     <t># of Projects</t>
   </si>
   <si>
+    <t>422-000001328</t>
+  </si>
+  <si>
     <t>422-000000004</t>
   </si>
   <si>
     <t>422-000001327</t>
   </si>
   <si>
-    <t>422-000001328</t>
+    <t>422-000000003</t>
+  </si>
+  <si>
+    <t>422-000000026</t>
   </si>
   <si>
     <t>422-000001363</t>
   </si>
   <si>
-    <t>422-000000003</t>
-  </si>
-  <si>
-    <t>422-000000026</t>
-  </si>
-  <si>
-    <t>422-999990160</t>
+    <t>422-999991100</t>
+  </si>
+  <si>
+    <t>422-999993100</t>
+  </si>
+  <si>
+    <t>422-999990230</t>
+  </si>
+  <si>
+    <t>422-999991218</t>
   </si>
   <si>
     <t>422-999991200</t>
@@ -64,15 +73,6 @@
     <t>422-999993200</t>
   </si>
   <si>
-    <t>422-999990060</t>
-  </si>
-  <si>
-    <t>422-999991218</t>
-  </si>
-  <si>
-    <t>422-999993100</t>
-  </si>
-  <si>
     <t>422-999993400</t>
   </si>
   <si>
@@ -100,25 +100,34 @@
     <t>National Science Foundation</t>
   </si>
   <si>
+    <t>Mission Support Systems</t>
+  </si>
+  <si>
     <t>Data Management and Delivery</t>
   </si>
   <si>
     <t>iTRAK</t>
   </si>
   <si>
-    <t>Mission Support Systems</t>
+    <t>Administrative Applications</t>
+  </si>
+  <si>
+    <t>Human Resources Support System</t>
   </si>
   <si>
     <t>Financial Services Support</t>
   </si>
   <si>
-    <t>Administrative Applications</t>
-  </si>
-  <si>
-    <t>Human Resources Support System</t>
-  </si>
-  <si>
-    <t>Grants.gov</t>
+    <t>LOB: Financial Management</t>
+  </si>
+  <si>
+    <t>LOB: Geospatial</t>
+  </si>
+  <si>
+    <t>Integrated Acquisition Environment</t>
+  </si>
+  <si>
+    <t>USAJOBS</t>
   </si>
   <si>
     <t>LOB: Human Resource Management</t>
@@ -127,15 +136,6 @@
     <t>LOB: Budget Formulation</t>
   </si>
   <si>
-    <t>E-Rulemaking</t>
-  </si>
-  <si>
-    <t>USAJOBS</t>
-  </si>
-  <si>
-    <t>LOB: Geospatial</t>
-  </si>
-  <si>
     <t>LOB: Hiring Assessment</t>
   </si>
   <si>
@@ -160,25 +160,34 @@
     <t>Platform</t>
   </si>
   <si>
+    <t>$50.306</t>
+  </si>
+  <si>
     <t>$8.330</t>
   </si>
   <si>
     <t>$8.671</t>
   </si>
   <si>
-    <t>$50.306</t>
+    <t>$2.953</t>
+  </si>
+  <si>
+    <t>$2.450</t>
   </si>
   <si>
     <t>$2.612</t>
   </si>
   <si>
-    <t>$2.953</t>
-  </si>
-  <si>
-    <t>$2.450</t>
-  </si>
-  <si>
-    <t>$0.323</t>
+    <t>$0.139</t>
+  </si>
+  <si>
+    <t>$0.025</t>
+  </si>
+  <si>
+    <t>$0.720</t>
+  </si>
+  <si>
+    <t>$0.010</t>
   </si>
   <si>
     <t>$0.068</t>
@@ -187,15 +196,6 @@
     <t>$0.120</t>
   </si>
   <si>
-    <t>$0.017</t>
-  </si>
-  <si>
-    <t>$0.010</t>
-  </si>
-  <si>
-    <t>$0.025</t>
-  </si>
-  <si>
     <t>$0.000</t>
   </si>
   <si>
@@ -232,22 +232,22 @@
     <t>Standard IT Infrastructure</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>26</t>
   </si>
   <si>
     <t>1</t>
@@ -709,7 +709,7 @@
         <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -902,16 +902,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
         <v>70</v>
@@ -928,16 +928,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -954,16 +954,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>70</v>
@@ -1047,7 +1047,7 @@
         <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
         <v>74</v>
@@ -1073,7 +1073,7 @@
         <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
         <v>74</v>
@@ -1099,7 +1099,7 @@
         <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
         <v>78</v>
@@ -1125,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
         <v>74</v>
@@ -1151,7 +1151,7 @@
         <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
         <v>74</v>
@@ -1177,7 +1177,7 @@
         <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
         <v>74</v>
@@ -1203,7 +1203,7 @@
         <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
         <v>74</v>
